--- a/prisma/PEKING_Cooking_Instructions.xlsx
+++ b/prisma/PEKING_Cooking_Instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xinyu/Desktop/workplace/sinofood/prisma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF6D5D2-1A19-DD4E-975A-4305FA230571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52121F6-57DA-E848-906F-A2861E250467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28180" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="266">
   <si>
     <t>Category</t>
   </si>
@@ -3179,12 +3179,6 @@
     <t>DESSERTS</t>
   </si>
   <si>
-    <t xml:space="preserve">VANILLA MILKSHAKE  </t>
-  </si>
-  <si>
-    <t>Cup</t>
-  </si>
-  <si>
     <t xml:space="preserve">NUTELLA MUFFIN     </t>
   </si>
   <si>
@@ -3203,6 +3197,15 @@
     <t>Rocher Cheesecake</t>
   </si>
   <si>
+    <t>picname</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
     <t>RecipeName</t>
   </si>
   <si>
@@ -3219,12 +3222,6 @@
   </si>
   <si>
     <t>ExtraIngredients</t>
-  </si>
-  <si>
-    <t>Packaging</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -3232,9 +3229,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3305,16 +3302,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3322,7 +3312,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3489,7 +3479,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3519,9 +3509,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3740,11 +3730,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA973"/>
+  <dimension ref="A1:AA972"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="15"/>
@@ -3755,35 +3745,37 @@
     <col min="9" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="27" customHeight="1">
+    <row r="1" spans="1:27" ht="21">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>265</v>
-      </c>
       <c r="I1" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" s="7"/>
+        <v>258</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -3826,7 +3818,9 @@
         <v>5</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -3865,7 +3859,9 @@
         <v>5</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -3904,7 +3900,9 @@
         <v>5</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7">
+        <v>3</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -3943,7 +3941,9 @@
         <v>5</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <v>4</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -3986,7 +3986,9 @@
         <v>5</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7">
+        <v>5</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -4023,7 +4025,9 @@
         <v>5</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7">
+        <v>6</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -4064,7 +4068,9 @@
         <v>15</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7">
+        <v>7</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -4103,7 +4109,9 @@
         <v>17</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7">
+        <v>7</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -4140,7 +4148,9 @@
         <v>20</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>7</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -4179,7 +4189,9 @@
       <c r="I11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7">
+        <v>7</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -4218,7 +4230,9 @@
         <v>20</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7">
+        <v>7</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -4257,7 +4271,9 @@
         <v>20</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7">
+        <v>7</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -4300,7 +4316,9 @@
         <v>32</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7">
+        <v>8</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -4343,7 +4361,9 @@
         <v>32</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="7">
+        <v>9</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -4386,7 +4406,9 @@
         <v>32</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7">
+        <v>9</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -4427,7 +4449,9 @@
         <v>32</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7">
+        <v>10</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -4466,7 +4490,9 @@
         <v>41</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7">
+        <v>11</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -4509,7 +4535,9 @@
         <v>41</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="7">
+        <v>12</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -4550,7 +4578,9 @@
         <v>41</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7">
+        <v>13</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -4591,7 +4621,9 @@
         <v>41</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7">
+        <v>14</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -4632,7 +4664,9 @@
         <v>57</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7">
+        <v>15</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -4673,7 +4707,9 @@
         <v>57</v>
       </c>
       <c r="I23" s="9"/>
-      <c r="J23" s="7"/>
+      <c r="J23" s="7">
+        <v>16</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -4712,7 +4748,9 @@
         <v>64</v>
       </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="7">
+        <v>17</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -4751,7 +4789,9 @@
         <v>67</v>
       </c>
       <c r="I25" s="9"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="7">
+        <v>18</v>
+      </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -4794,7 +4834,9 @@
       <c r="I26" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="7">
+        <v>19</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -4833,7 +4875,9 @@
         <v>72</v>
       </c>
       <c r="I27" s="9"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="7">
+        <v>20</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -4870,7 +4914,9 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7">
+        <v>21</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -4905,7 +4951,9 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7">
+        <v>21</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -4942,7 +4990,9 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="7">
+        <v>21</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -4977,7 +5027,9 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="7">
+        <v>22</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -5012,7 +5064,9 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="7"/>
+      <c r="J32" s="7">
+        <v>23</v>
+      </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -5047,7 +5101,9 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="7"/>
+      <c r="J33" s="7">
+        <v>24</v>
+      </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -5082,7 +5138,9 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="7"/>
+      <c r="J34" s="7">
+        <v>25</v>
+      </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -5115,7 +5173,9 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="7"/>
+      <c r="J35" s="7">
+        <v>26</v>
+      </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -5150,7 +5210,9 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="7"/>
+      <c r="J36" s="7">
+        <v>27</v>
+      </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -5191,7 +5253,9 @@
       <c r="I37" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="7">
+        <v>28</v>
+      </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -5232,7 +5296,9 @@
       <c r="I38" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="7">
+        <v>29</v>
+      </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -5273,7 +5339,9 @@
       <c r="I39" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="7">
+        <v>30</v>
+      </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -5316,7 +5384,9 @@
       <c r="I40" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J40" s="7"/>
+      <c r="J40" s="7">
+        <v>31</v>
+      </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -5359,7 +5429,9 @@
       <c r="I41" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="7">
+        <v>32</v>
+      </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -5402,7 +5474,9 @@
       <c r="I42" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="7">
+        <v>33</v>
+      </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -5445,7 +5519,9 @@
       <c r="I43" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="7">
+        <v>34</v>
+      </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -5488,7 +5564,9 @@
       <c r="I44" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J44" s="7"/>
+      <c r="J44" s="7">
+        <v>35</v>
+      </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -5529,7 +5607,9 @@
       <c r="I45" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J45" s="7"/>
+      <c r="J45" s="7">
+        <v>36</v>
+      </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
@@ -5570,7 +5650,9 @@
       <c r="I46" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="7">
+        <v>37</v>
+      </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -5613,7 +5695,9 @@
       <c r="I47" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J47" s="7"/>
+      <c r="J47" s="7">
+        <v>38</v>
+      </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -5654,7 +5738,9 @@
       <c r="I48" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J48" s="7"/>
+      <c r="J48" s="7">
+        <v>39</v>
+      </c>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
@@ -5693,7 +5779,9 @@
         <v>94</v>
       </c>
       <c r="I49" s="4"/>
-      <c r="J49" s="7"/>
+      <c r="J49" s="7">
+        <v>40</v>
+      </c>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -5732,7 +5820,9 @@
         <v>94</v>
       </c>
       <c r="I50" s="4"/>
-      <c r="J50" s="7"/>
+      <c r="J50" s="7">
+        <v>41</v>
+      </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -5771,7 +5861,9 @@
         <v>94</v>
       </c>
       <c r="I51" s="22"/>
-      <c r="J51" s="7"/>
+      <c r="J51" s="7">
+        <v>42</v>
+      </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -5810,7 +5902,9 @@
         <v>94</v>
       </c>
       <c r="I52" s="23"/>
-      <c r="J52" s="7"/>
+      <c r="J52" s="7">
+        <v>43</v>
+      </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -5849,7 +5943,9 @@
         <v>94</v>
       </c>
       <c r="I53" s="23"/>
-      <c r="J53" s="7"/>
+      <c r="J53" s="7">
+        <v>44</v>
+      </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -5888,7 +5984,9 @@
         <v>94</v>
       </c>
       <c r="I54" s="23"/>
-      <c r="J54" s="7"/>
+      <c r="J54" s="7">
+        <v>45</v>
+      </c>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -5927,7 +6025,9 @@
         <v>94</v>
       </c>
       <c r="I55" s="23"/>
-      <c r="J55" s="7"/>
+      <c r="J55" s="7">
+        <v>46</v>
+      </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -5966,7 +6066,9 @@
         <v>94</v>
       </c>
       <c r="I56" s="23"/>
-      <c r="J56" s="7"/>
+      <c r="J56" s="7">
+        <v>47</v>
+      </c>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -6007,7 +6109,9 @@
         <v>94</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="7"/>
+      <c r="J57" s="7">
+        <v>48</v>
+      </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -6048,7 +6152,9 @@
         <v>94</v>
       </c>
       <c r="I58" s="22"/>
-      <c r="J58" s="7"/>
+      <c r="J58" s="7">
+        <v>49</v>
+      </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -6089,7 +6195,9 @@
         <v>94</v>
       </c>
       <c r="I59" s="23"/>
-      <c r="J59" s="7"/>
+      <c r="J59" s="7">
+        <v>50</v>
+      </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -6130,7 +6238,9 @@
         <v>94</v>
       </c>
       <c r="I60" s="23"/>
-      <c r="J60" s="7"/>
+      <c r="J60" s="7">
+        <v>51</v>
+      </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -6171,7 +6281,9 @@
         <v>94</v>
       </c>
       <c r="I61" s="23"/>
-      <c r="J61" s="7"/>
+      <c r="J61" s="7">
+        <v>52</v>
+      </c>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -6210,7 +6322,9 @@
         <v>94</v>
       </c>
       <c r="I62" s="24"/>
-      <c r="J62" s="7"/>
+      <c r="J62" s="7">
+        <v>53</v>
+      </c>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -6247,7 +6361,9 @@
         <v>179</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="7"/>
+      <c r="J63" s="7">
+        <v>54</v>
+      </c>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -6286,7 +6402,9 @@
         <v>32</v>
       </c>
       <c r="I64" s="4"/>
-      <c r="J64" s="7"/>
+      <c r="J64" s="7">
+        <v>55</v>
+      </c>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
@@ -6319,7 +6437,9 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="7"/>
+      <c r="J65" s="7">
+        <v>55</v>
+      </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -6354,7 +6474,9 @@
         <v>107</v>
       </c>
       <c r="I66" s="4"/>
-      <c r="J66" s="7"/>
+      <c r="J66" s="7">
+        <v>56</v>
+      </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -6393,7 +6515,9 @@
         <v>107</v>
       </c>
       <c r="I67" s="4"/>
-      <c r="J67" s="7"/>
+      <c r="J67" s="7">
+        <v>57</v>
+      </c>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -6432,7 +6556,9 @@
         <v>107</v>
       </c>
       <c r="I68" s="4"/>
-      <c r="J68" s="7"/>
+      <c r="J68" s="7">
+        <v>58</v>
+      </c>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -6473,7 +6599,9 @@
         <v>189</v>
       </c>
       <c r="I69" s="4"/>
-      <c r="J69" s="7"/>
+      <c r="J69" s="7">
+        <v>59</v>
+      </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -6512,7 +6640,9 @@
         <v>107</v>
       </c>
       <c r="I70" s="4"/>
-      <c r="J70" s="7"/>
+      <c r="J70" s="7">
+        <v>60</v>
+      </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -6557,7 +6687,9 @@
       <c r="I71" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J71" s="7"/>
+      <c r="J71" s="7">
+        <v>61</v>
+      </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -6602,7 +6734,9 @@
       <c r="I72" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J72" s="7"/>
+      <c r="J72" s="7">
+        <v>62</v>
+      </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -6649,7 +6783,9 @@
       <c r="I73" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J73" s="7"/>
+      <c r="J73" s="7">
+        <v>63</v>
+      </c>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -6696,7 +6832,9 @@
       <c r="I74" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J74" s="7"/>
+      <c r="J74" s="7">
+        <v>64</v>
+      </c>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -6733,7 +6871,9 @@
         <v>207</v>
       </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="7"/>
+      <c r="J75" s="7">
+        <v>65</v>
+      </c>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -6770,7 +6910,9 @@
         <v>207</v>
       </c>
       <c r="I76" s="4"/>
-      <c r="J76" s="7"/>
+      <c r="J76" s="7">
+        <v>66</v>
+      </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -6807,7 +6949,9 @@
         <v>207</v>
       </c>
       <c r="I77" s="4"/>
-      <c r="J77" s="7"/>
+      <c r="J77" s="7">
+        <v>67</v>
+      </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -6844,7 +6988,9 @@
         <v>207</v>
       </c>
       <c r="I78" s="4"/>
-      <c r="J78" s="7"/>
+      <c r="J78" s="7">
+        <v>68</v>
+      </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -6881,7 +7027,9 @@
         <v>207</v>
       </c>
       <c r="I79" s="4"/>
-      <c r="J79" s="7"/>
+      <c r="J79" s="7">
+        <v>69</v>
+      </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
@@ -6918,7 +7066,9 @@
         <v>207</v>
       </c>
       <c r="I80" s="4"/>
-      <c r="J80" s="7"/>
+      <c r="J80" s="7">
+        <v>70</v>
+      </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
@@ -6955,7 +7105,9 @@
         <v>207</v>
       </c>
       <c r="I81" s="4"/>
-      <c r="J81" s="7"/>
+      <c r="J81" s="7">
+        <v>71</v>
+      </c>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -6992,7 +7144,9 @@
         <v>207</v>
       </c>
       <c r="I82" s="4"/>
-      <c r="J82" s="7"/>
+      <c r="J82" s="7">
+        <v>72</v>
+      </c>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -7037,7 +7191,9 @@
         <v>94</v>
       </c>
       <c r="I83" s="22"/>
-      <c r="J83" s="7"/>
+      <c r="J83" s="7">
+        <v>73</v>
+      </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -7082,7 +7238,9 @@
         <v>94</v>
       </c>
       <c r="I84" s="23"/>
-      <c r="J84" s="7"/>
+      <c r="J84" s="7">
+        <v>74</v>
+      </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -7127,7 +7285,9 @@
         <v>94</v>
       </c>
       <c r="I85" s="23"/>
-      <c r="J85" s="7"/>
+      <c r="J85" s="7">
+        <v>75</v>
+      </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -7172,7 +7332,9 @@
         <v>94</v>
       </c>
       <c r="I86" s="23"/>
-      <c r="J86" s="7"/>
+      <c r="J86" s="7">
+        <v>76</v>
+      </c>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
@@ -7217,7 +7379,9 @@
         <v>94</v>
       </c>
       <c r="I87" s="24"/>
-      <c r="J87" s="7"/>
+      <c r="J87" s="7">
+        <v>77</v>
+      </c>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -7258,7 +7422,9 @@
         <v>32</v>
       </c>
       <c r="I88" s="4"/>
-      <c r="J88" s="7"/>
+      <c r="J88" s="7">
+        <v>78</v>
+      </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -7301,7 +7467,9 @@
       <c r="I89" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="J89" s="7"/>
+      <c r="J89" s="7">
+        <v>79</v>
+      </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -7338,7 +7506,9 @@
         <v>237</v>
       </c>
       <c r="I90" s="4"/>
-      <c r="J90" s="7"/>
+      <c r="J90" s="7">
+        <v>80</v>
+      </c>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -7375,7 +7545,9 @@
         <v>237</v>
       </c>
       <c r="I91" s="4"/>
-      <c r="J91" s="7"/>
+      <c r="J91" s="7">
+        <v>81</v>
+      </c>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
@@ -7416,7 +7588,9 @@
         <v>17</v>
       </c>
       <c r="I92" s="4"/>
-      <c r="J92" s="7"/>
+      <c r="J92" s="7">
+        <v>82</v>
+      </c>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -7455,7 +7629,9 @@
         <v>94</v>
       </c>
       <c r="I93" s="4"/>
-      <c r="J93" s="7"/>
+      <c r="J93" s="7">
+        <v>83</v>
+      </c>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -7494,7 +7670,9 @@
         <v>94</v>
       </c>
       <c r="I94" s="4"/>
-      <c r="J94" s="7"/>
+      <c r="J94" s="7">
+        <v>84</v>
+      </c>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
@@ -7533,7 +7711,9 @@
         <v>94</v>
       </c>
       <c r="I95" s="4"/>
-      <c r="J95" s="7"/>
+      <c r="J95" s="7">
+        <v>85</v>
+      </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
@@ -7559,18 +7739,22 @@
       <c r="B96" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C96" s="4"/>
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
       <c r="D96" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4" t="s">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="I96" s="4"/>
-      <c r="J96" s="7"/>
+      <c r="J96" s="7">
+        <v>86</v>
+      </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
@@ -7594,22 +7778,18 @@
         <v>250</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C97" s="4">
-        <v>1</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="7"/>
+      <c r="J97" s="7">
+        <v>87</v>
+      </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -7633,16 +7813,24 @@
         <v>250</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="H98" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="7"/>
+      <c r="J98" s="7">
+        <v>88</v>
+      </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
@@ -7666,10 +7854,10 @@
         <v>250</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C99" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>14</v>
@@ -7678,10 +7866,12 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4" t="s">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="I99" s="4"/>
-      <c r="J99" s="7"/>
+      <c r="J99" s="7">
+        <v>89</v>
+      </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
@@ -7704,23 +7894,25 @@
       <c r="A100" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="21">
+        <v>1</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I100" s="4"/>
-      <c r="J100" s="7"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="7">
+        <v>90</v>
+      </c>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -7739,26 +7931,15 @@
       <c r="Z100" s="7"/>
       <c r="AA100" s="7"/>
     </row>
-    <row r="101" spans="1:27" ht="16">
-      <c r="A101" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C101" s="21">
-        <v>1</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="21"/>
+    <row r="101" spans="1:27">
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
@@ -8029,23 +8210,6 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="7"/>
-      <c r="V111" s="7"/>
-      <c r="W111" s="7"/>
-      <c r="X111" s="7"/>
-      <c r="Y111" s="7"/>
-      <c r="Z111" s="7"/>
-      <c r="AA111" s="7"/>
     </row>
     <row r="112" spans="1:27">
       <c r="B112" s="7"/>
@@ -8056,6 +8220,23 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+      <c r="W112" s="7"/>
+      <c r="X112" s="7"/>
+      <c r="Y112" s="7"/>
+      <c r="Z112" s="7"/>
+      <c r="AA112" s="7"/>
     </row>
     <row r="113" spans="2:27">
       <c r="B113" s="7"/>
@@ -8174,23 +8355,6 @@
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="7"/>
-      <c r="W117" s="7"/>
-      <c r="X117" s="7"/>
-      <c r="Y117" s="7"/>
-      <c r="Z117" s="7"/>
-      <c r="AA117" s="7"/>
     </row>
     <row r="118" spans="2:27">
       <c r="B118" s="7"/>
@@ -16741,16 +16905,6 @@
       <c r="G972" s="7"/>
       <c r="H972" s="7"/>
       <c r="I972" s="7"/>
-    </row>
-    <row r="973" spans="2:9">
-      <c r="B973" s="7"/>
-      <c r="C973" s="7"/>
-      <c r="D973" s="7"/>
-      <c r="E973" s="7"/>
-      <c r="F973" s="7"/>
-      <c r="G973" s="7"/>
-      <c r="H973" s="7"/>
-      <c r="I973" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
